--- a/src/test/resources/test_data.xlsx
+++ b/src/test/resources/test_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>case_id(用例id)</t>
   </si>
